--- a/Extra/Yields_Dry_and_Irri_first.xlsx
+++ b/Extra/Yields_Dry_and_Irri_first.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milag\OneDrive - Kansas State University\Desktop\R_Soybean_Cobal_Pereyra\Soybean\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milag\OneDrive - Kansas State University\Documents\GitHub\Soy_Mili_Vale\Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8FC352-49A2-44E7-99F8-044F19F54D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613DC93D-D8B9-472D-B652-562B5AC6396A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0EE03C08-664C-4833-9C6C-A1F09CEA7049}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0EE03C08-664C-4833-9C6C-A1F09CEA7049}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BDCE2B-A653-467A-8775-9E0587C0C72D}">
   <dimension ref="A1:D193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C25"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,2114 +444,2114 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2022</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
+        <v>2019</v>
+      </c>
+      <c r="B2" s="1">
+        <v>101</v>
       </c>
       <c r="C2">
-        <v>664</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2022</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
+        <v>2019</v>
+      </c>
+      <c r="B3" s="1">
+        <v>102</v>
       </c>
       <c r="C3">
-        <v>660</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2022</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
+        <v>2019</v>
+      </c>
+      <c r="B4" s="1">
+        <v>103</v>
       </c>
       <c r="C4">
-        <v>600</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2022</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
+        <v>2019</v>
+      </c>
+      <c r="B5" s="1">
+        <v>104</v>
       </c>
       <c r="C5">
-        <v>700</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2022</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5</v>
+        <v>2019</v>
+      </c>
+      <c r="B6" s="1">
+        <v>105</v>
       </c>
       <c r="C6">
-        <v>685</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2022</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6</v>
+        <v>2019</v>
+      </c>
+      <c r="B7" s="1">
+        <v>106</v>
       </c>
       <c r="C7">
-        <v>700</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2022</v>
-      </c>
-      <c r="B8" s="2">
-        <v>7</v>
+        <v>2019</v>
+      </c>
+      <c r="B8" s="1">
+        <v>107</v>
       </c>
       <c r="C8">
-        <v>600</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2022</v>
-      </c>
-      <c r="B9" s="2">
-        <v>8</v>
+        <v>2019</v>
+      </c>
+      <c r="B9" s="1">
+        <v>108</v>
       </c>
       <c r="C9">
-        <v>680</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="2">
-        <v>9</v>
+        <v>2019</v>
+      </c>
+      <c r="B10" s="1">
+        <v>201</v>
       </c>
       <c r="C10">
-        <v>610</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2022</v>
-      </c>
-      <c r="B11" s="2">
-        <v>10</v>
+        <v>2019</v>
+      </c>
+      <c r="B11" s="1">
+        <v>202</v>
       </c>
       <c r="C11">
-        <v>697</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2022</v>
-      </c>
-      <c r="B12" s="2">
-        <v>11</v>
+        <v>2019</v>
+      </c>
+      <c r="B12" s="1">
+        <v>203</v>
       </c>
       <c r="C12">
-        <v>720</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2022</v>
-      </c>
-      <c r="B13" s="2">
-        <v>12</v>
+        <v>2019</v>
+      </c>
+      <c r="B13" s="1">
+        <v>204</v>
       </c>
       <c r="C13">
-        <v>600</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14" s="2">
-        <v>13</v>
+        <v>2019</v>
+      </c>
+      <c r="B14" s="1">
+        <v>205</v>
       </c>
       <c r="C14">
-        <v>650</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2022</v>
-      </c>
-      <c r="B15" s="2">
-        <v>14</v>
+        <v>2019</v>
+      </c>
+      <c r="B15" s="1">
+        <v>206</v>
       </c>
       <c r="C15">
-        <v>670</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2022</v>
-      </c>
-      <c r="B16" s="2">
-        <v>15</v>
+        <v>2019</v>
+      </c>
+      <c r="B16" s="1">
+        <v>207</v>
       </c>
       <c r="C16">
-        <v>614</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2022</v>
-      </c>
-      <c r="B17" s="2">
-        <v>16</v>
+        <v>2019</v>
+      </c>
+      <c r="B17" s="1">
+        <v>208</v>
       </c>
       <c r="C17">
-        <v>670</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2022</v>
-      </c>
-      <c r="B18" s="2">
-        <v>17</v>
+        <v>2019</v>
+      </c>
+      <c r="B18" s="1">
+        <v>301</v>
       </c>
       <c r="C18">
-        <v>640</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2022</v>
-      </c>
-      <c r="B19" s="2">
-        <v>18</v>
+        <v>2019</v>
+      </c>
+      <c r="B19" s="1">
+        <v>302</v>
       </c>
       <c r="C19">
-        <v>560</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2022</v>
-      </c>
-      <c r="B20" s="2">
-        <v>19</v>
+        <v>2019</v>
+      </c>
+      <c r="B20" s="1">
+        <v>303</v>
       </c>
       <c r="C20">
-        <v>580</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2022</v>
-      </c>
-      <c r="B21" s="2">
-        <v>20</v>
+        <v>2019</v>
+      </c>
+      <c r="B21" s="1">
+        <v>304</v>
       </c>
       <c r="C21">
-        <v>620</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2022</v>
-      </c>
-      <c r="B22" s="2">
-        <v>21</v>
+        <v>2019</v>
+      </c>
+      <c r="B22" s="1">
+        <v>305</v>
       </c>
       <c r="C22">
-        <v>610</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2022</v>
-      </c>
-      <c r="B23" s="2">
-        <v>22</v>
+        <v>2019</v>
+      </c>
+      <c r="B23" s="1">
+        <v>306</v>
       </c>
       <c r="C23">
-        <v>650</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2022</v>
-      </c>
-      <c r="B24" s="2">
-        <v>23</v>
+        <v>2019</v>
+      </c>
+      <c r="B24" s="1">
+        <v>307</v>
       </c>
       <c r="C24">
-        <v>620</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2022</v>
-      </c>
-      <c r="B25" s="2">
-        <v>24</v>
+        <v>2019</v>
+      </c>
+      <c r="B25" s="1">
+        <v>308</v>
       </c>
       <c r="C25">
-        <v>540</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2022</v>
-      </c>
-      <c r="B26" s="1">
-        <v>25</v>
+        <v>2019</v>
+      </c>
+      <c r="B26" s="2">
+        <v>401</v>
       </c>
       <c r="C26">
-        <v>400</v>
+        <v>770</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2022</v>
-      </c>
-      <c r="B27" s="1">
-        <v>26</v>
+        <v>2019</v>
+      </c>
+      <c r="B27" s="2">
+        <v>402</v>
       </c>
       <c r="C27">
-        <v>410</v>
+        <v>760</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2022</v>
-      </c>
-      <c r="B28" s="1">
-        <v>27</v>
+        <v>2019</v>
+      </c>
+      <c r="B28" s="2">
+        <v>403</v>
       </c>
       <c r="C28">
-        <v>600</v>
+        <v>860</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2022</v>
-      </c>
-      <c r="B29" s="1">
-        <v>28</v>
+        <v>2019</v>
+      </c>
+      <c r="B29" s="2">
+        <v>404</v>
       </c>
       <c r="C29">
-        <v>510</v>
+        <v>830</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2022</v>
-      </c>
-      <c r="B30" s="1">
-        <v>29</v>
+        <v>2019</v>
+      </c>
+      <c r="B30" s="2">
+        <v>405</v>
       </c>
       <c r="C30">
-        <v>650</v>
+        <v>860</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2022</v>
-      </c>
-      <c r="B31" s="1">
-        <v>30</v>
+        <v>2019</v>
+      </c>
+      <c r="B31" s="2">
+        <v>406</v>
       </c>
       <c r="C31">
-        <v>640</v>
+        <v>870</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2022</v>
-      </c>
-      <c r="B32" s="1">
-        <v>31</v>
+        <v>2019</v>
+      </c>
+      <c r="B32" s="2">
+        <v>407</v>
       </c>
       <c r="C32">
-        <v>610</v>
+        <v>960</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2022</v>
-      </c>
-      <c r="B33" s="1">
-        <v>32</v>
+        <v>2019</v>
+      </c>
+      <c r="B33" s="2">
+        <v>408</v>
       </c>
       <c r="C33">
-        <v>520</v>
+        <v>910</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2022</v>
-      </c>
-      <c r="B34" s="1">
-        <v>33</v>
+        <v>2019</v>
+      </c>
+      <c r="B34" s="2">
+        <v>501</v>
       </c>
       <c r="C34">
-        <v>520</v>
+        <v>820</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2022</v>
-      </c>
-      <c r="B35" s="1">
-        <v>34</v>
+        <v>2019</v>
+      </c>
+      <c r="B35" s="2">
+        <v>502</v>
       </c>
       <c r="C35">
-        <v>640</v>
+        <v>770</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2022</v>
-      </c>
-      <c r="B36" s="1">
-        <v>35</v>
+        <v>2019</v>
+      </c>
+      <c r="B36" s="2">
+        <v>503</v>
       </c>
       <c r="C36">
-        <v>722</v>
+        <v>690</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2022</v>
-      </c>
-      <c r="B37" s="1">
-        <v>36</v>
+        <v>2019</v>
+      </c>
+      <c r="B37" s="2">
+        <v>504</v>
       </c>
       <c r="C37">
-        <v>575</v>
+        <v>650</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>2022</v>
-      </c>
-      <c r="B38" s="1">
-        <v>37</v>
+        <v>2019</v>
+      </c>
+      <c r="B38" s="2">
+        <v>505</v>
       </c>
       <c r="C38">
-        <v>510</v>
+        <v>950</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>2022</v>
-      </c>
-      <c r="B39" s="1">
-        <v>38</v>
+        <v>2019</v>
+      </c>
+      <c r="B39" s="2">
+        <v>506</v>
       </c>
       <c r="C39">
-        <v>540</v>
+        <v>910</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2022</v>
-      </c>
-      <c r="B40" s="1">
-        <v>39</v>
+        <v>2019</v>
+      </c>
+      <c r="B40" s="2">
+        <v>507</v>
       </c>
       <c r="C40">
-        <v>610</v>
+        <v>880</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>2022</v>
-      </c>
-      <c r="B41" s="1">
-        <v>40</v>
+        <v>2019</v>
+      </c>
+      <c r="B41" s="2">
+        <v>508</v>
       </c>
       <c r="C41">
-        <v>610</v>
+        <v>850</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2022</v>
-      </c>
-      <c r="B42" s="1">
-        <v>41</v>
+        <v>2019</v>
+      </c>
+      <c r="B42" s="2">
+        <v>601</v>
       </c>
       <c r="C42">
-        <v>600</v>
+        <v>670</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>2022</v>
-      </c>
-      <c r="B43" s="1">
-        <v>42</v>
+        <v>2019</v>
+      </c>
+      <c r="B43" s="2">
+        <v>602</v>
       </c>
       <c r="C43">
-        <v>630</v>
+        <v>700</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>2022</v>
-      </c>
-      <c r="B44" s="1">
-        <v>43</v>
+        <v>2019</v>
+      </c>
+      <c r="B44" s="2">
+        <v>603</v>
       </c>
       <c r="C44">
-        <v>600</v>
+        <v>690</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>2022</v>
-      </c>
-      <c r="B45" s="1">
-        <v>44</v>
+        <v>2019</v>
+      </c>
+      <c r="B45" s="2">
+        <v>604</v>
       </c>
       <c r="C45">
-        <v>660</v>
+        <v>680</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>2022</v>
-      </c>
-      <c r="B46" s="1">
-        <v>45</v>
+        <v>2019</v>
+      </c>
+      <c r="B46" s="2">
+        <v>605</v>
       </c>
       <c r="C46">
-        <v>670</v>
+        <v>800</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>2022</v>
-      </c>
-      <c r="B47" s="1">
-        <v>46</v>
+        <v>2019</v>
+      </c>
+      <c r="B47" s="2">
+        <v>606</v>
       </c>
       <c r="C47">
-        <v>590</v>
+        <v>830</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>2022</v>
-      </c>
-      <c r="B48" s="1">
-        <v>47</v>
+        <v>2019</v>
+      </c>
+      <c r="B48" s="2">
+        <v>607</v>
       </c>
       <c r="C48">
-        <v>610</v>
+        <v>790</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>2022</v>
-      </c>
-      <c r="B49" s="1">
-        <v>48</v>
+        <v>2019</v>
+      </c>
+      <c r="B49" s="2">
+        <v>608</v>
       </c>
       <c r="C49">
-        <v>720</v>
+        <v>740</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>2019</v>
+      <c r="A50" s="3">
+        <v>2020</v>
       </c>
       <c r="B50" s="1">
         <v>101</v>
       </c>
       <c r="C50">
-        <v>470</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>2019</v>
+      <c r="A51" s="3">
+        <v>2020</v>
       </c>
       <c r="B51" s="1">
         <v>102</v>
       </c>
       <c r="C51">
-        <v>400</v>
+        <v>470</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>2019</v>
+      <c r="A52" s="3">
+        <v>2020</v>
       </c>
       <c r="B52" s="1">
         <v>103</v>
       </c>
       <c r="C52">
-        <v>330</v>
+        <v>460</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>2019</v>
+      <c r="A53" s="3">
+        <v>2020</v>
       </c>
       <c r="B53" s="1">
         <v>104</v>
       </c>
       <c r="C53">
-        <v>460</v>
+        <v>530</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>2019</v>
+      <c r="A54" s="3">
+        <v>2020</v>
       </c>
       <c r="B54" s="1">
         <v>105</v>
       </c>
       <c r="C54">
-        <v>440</v>
+        <v>450</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>2019</v>
+      <c r="A55" s="3">
+        <v>2020</v>
       </c>
       <c r="B55" s="1">
         <v>106</v>
       </c>
       <c r="C55">
-        <v>370</v>
+        <v>470</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>2019</v>
+      <c r="A56" s="3">
+        <v>2020</v>
       </c>
       <c r="B56" s="1">
         <v>107</v>
       </c>
       <c r="C56">
-        <v>310</v>
+        <v>370</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>2019</v>
+      <c r="A57" s="3">
+        <v>2020</v>
       </c>
       <c r="B57" s="1">
         <v>108</v>
       </c>
       <c r="C57">
-        <v>510</v>
+        <v>590</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>2019</v>
+      <c r="A58" s="3">
+        <v>2020</v>
       </c>
       <c r="B58" s="1">
         <v>201</v>
       </c>
       <c r="C58">
-        <v>440</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>2019</v>
+      <c r="A59" s="3">
+        <v>2020</v>
       </c>
       <c r="B59" s="1">
         <v>202</v>
       </c>
       <c r="C59">
-        <v>360</v>
+        <v>450</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>2019</v>
+      <c r="A60" s="3">
+        <v>2020</v>
       </c>
       <c r="B60" s="1">
         <v>203</v>
       </c>
       <c r="C60">
-        <v>280</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>2019</v>
+      <c r="A61" s="3">
+        <v>2020</v>
       </c>
       <c r="B61" s="1">
         <v>204</v>
       </c>
       <c r="C61">
-        <v>370</v>
+        <v>400</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>2019</v>
+      <c r="A62" s="3">
+        <v>2020</v>
       </c>
       <c r="B62" s="1">
         <v>205</v>
       </c>
       <c r="C62">
-        <v>380</v>
+        <v>350</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>2019</v>
+      <c r="A63" s="3">
+        <v>2020</v>
       </c>
       <c r="B63" s="1">
         <v>206</v>
       </c>
       <c r="C63">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>2019</v>
+      <c r="A64" s="3">
+        <v>2020</v>
       </c>
       <c r="B64" s="1">
         <v>207</v>
       </c>
       <c r="C64">
-        <v>300</v>
+        <v>330</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>2019</v>
+      <c r="A65" s="3">
+        <v>2020</v>
       </c>
       <c r="B65" s="1">
         <v>208</v>
       </c>
       <c r="C65">
-        <v>380</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>2019</v>
+      <c r="A66" s="3">
+        <v>2020</v>
       </c>
       <c r="B66" s="1">
         <v>301</v>
       </c>
       <c r="C66">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>2019</v>
+      <c r="A67" s="3">
+        <v>2020</v>
       </c>
       <c r="B67" s="1">
         <v>302</v>
       </c>
       <c r="C67">
-        <v>300</v>
+        <v>340</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>2019</v>
+      <c r="A68" s="3">
+        <v>2020</v>
       </c>
       <c r="B68" s="1">
         <v>303</v>
       </c>
       <c r="C68">
-        <v>340</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>2019</v>
+      <c r="A69" s="3">
+        <v>2020</v>
       </c>
       <c r="B69" s="1">
         <v>304</v>
       </c>
       <c r="C69">
-        <v>380</v>
+        <v>290</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>2019</v>
+      <c r="A70" s="3">
+        <v>2020</v>
       </c>
       <c r="B70" s="1">
         <v>305</v>
       </c>
       <c r="C70">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>2019</v>
+      <c r="A71" s="3">
+        <v>2020</v>
       </c>
       <c r="B71" s="1">
         <v>306</v>
       </c>
       <c r="C71">
-        <v>260</v>
+        <v>330</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>2019</v>
+      <c r="A72" s="3">
+        <v>2020</v>
       </c>
       <c r="B72" s="1">
         <v>307</v>
       </c>
       <c r="C72">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>2019</v>
+      <c r="A73" s="3">
+        <v>2020</v>
       </c>
       <c r="B73" s="1">
         <v>308</v>
       </c>
       <c r="C73">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>2019</v>
+      <c r="A74" s="3">
+        <v>2020</v>
       </c>
       <c r="B74" s="2">
-        <v>401</v>
+        <v>101</v>
       </c>
       <c r="C74">
-        <v>770</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>2019</v>
+      <c r="A75" s="3">
+        <v>2020</v>
       </c>
       <c r="B75" s="2">
-        <v>402</v>
+        <v>102</v>
       </c>
       <c r="C75">
-        <v>760</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>2019</v>
+      <c r="A76" s="3">
+        <v>2020</v>
       </c>
       <c r="B76" s="2">
-        <v>403</v>
+        <v>103</v>
       </c>
       <c r="C76">
-        <v>860</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>2019</v>
+      <c r="A77" s="3">
+        <v>2020</v>
       </c>
       <c r="B77" s="2">
-        <v>404</v>
+        <v>104</v>
       </c>
       <c r="C77">
-        <v>830</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>2019</v>
+      <c r="A78" s="3">
+        <v>2020</v>
       </c>
       <c r="B78" s="2">
-        <v>405</v>
+        <v>105</v>
       </c>
       <c r="C78">
-        <v>860</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>2019</v>
+      <c r="A79" s="3">
+        <v>2020</v>
       </c>
       <c r="B79" s="2">
-        <v>406</v>
+        <v>106</v>
       </c>
       <c r="C79">
-        <v>870</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>2019</v>
+      <c r="A80" s="3">
+        <v>2020</v>
       </c>
       <c r="B80" s="2">
-        <v>407</v>
+        <v>107</v>
       </c>
       <c r="C80">
-        <v>960</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>2019</v>
+      <c r="A81" s="3">
+        <v>2020</v>
       </c>
       <c r="B81" s="2">
-        <v>408</v>
+        <v>108</v>
       </c>
       <c r="C81">
-        <v>910</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>2019</v>
+      <c r="A82" s="3">
+        <v>2020</v>
       </c>
       <c r="B82" s="2">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="C82">
-        <v>820</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>2019</v>
+      <c r="A83" s="3">
+        <v>2020</v>
       </c>
       <c r="B83" s="2">
-        <v>502</v>
+        <v>202</v>
       </c>
       <c r="C83">
-        <v>770</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>2019</v>
+      <c r="A84" s="3">
+        <v>2020</v>
       </c>
       <c r="B84" s="2">
-        <v>503</v>
+        <v>203</v>
       </c>
       <c r="C84">
-        <v>690</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>2019</v>
+      <c r="A85" s="3">
+        <v>2020</v>
       </c>
       <c r="B85" s="2">
-        <v>504</v>
+        <v>204</v>
       </c>
       <c r="C85">
-        <v>650</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>2019</v>
+      <c r="A86" s="3">
+        <v>2020</v>
       </c>
       <c r="B86" s="2">
-        <v>505</v>
+        <v>205</v>
       </c>
       <c r="C86">
-        <v>950</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>2019</v>
+      <c r="A87" s="3">
+        <v>2020</v>
       </c>
       <c r="B87" s="2">
-        <v>506</v>
+        <v>206</v>
       </c>
       <c r="C87">
-        <v>910</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>2019</v>
+      <c r="A88" s="3">
+        <v>2020</v>
       </c>
       <c r="B88" s="2">
-        <v>507</v>
+        <v>207</v>
       </c>
       <c r="C88">
-        <v>880</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>2019</v>
+      <c r="A89" s="3">
+        <v>2020</v>
       </c>
       <c r="B89" s="2">
-        <v>508</v>
+        <v>208</v>
       </c>
       <c r="C89">
-        <v>850</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>2019</v>
+      <c r="A90" s="3">
+        <v>2020</v>
       </c>
       <c r="B90" s="2">
-        <v>601</v>
+        <v>301</v>
       </c>
       <c r="C90">
-        <v>670</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>2019</v>
+      <c r="A91" s="3">
+        <v>2020</v>
       </c>
       <c r="B91" s="2">
-        <v>602</v>
+        <v>302</v>
       </c>
       <c r="C91">
-        <v>700</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>2019</v>
+      <c r="A92" s="3">
+        <v>2020</v>
       </c>
       <c r="B92" s="2">
-        <v>603</v>
+        <v>303</v>
       </c>
       <c r="C92">
-        <v>690</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>2019</v>
+      <c r="A93" s="3">
+        <v>2020</v>
       </c>
       <c r="B93" s="2">
-        <v>604</v>
+        <v>304</v>
       </c>
       <c r="C93">
-        <v>680</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>2019</v>
+      <c r="A94" s="3">
+        <v>2020</v>
       </c>
       <c r="B94" s="2">
-        <v>605</v>
+        <v>305</v>
       </c>
       <c r="C94">
-        <v>800</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>2019</v>
+      <c r="A95" s="3">
+        <v>2020</v>
       </c>
       <c r="B95" s="2">
-        <v>606</v>
+        <v>306</v>
       </c>
       <c r="C95">
-        <v>830</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>2019</v>
+      <c r="A96" s="3">
+        <v>2020</v>
       </c>
       <c r="B96" s="2">
-        <v>607</v>
+        <v>307</v>
       </c>
       <c r="C96">
-        <v>790</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>2019</v>
+      <c r="A97" s="3">
+        <v>2020</v>
       </c>
       <c r="B97" s="2">
-        <v>608</v>
+        <v>308</v>
       </c>
       <c r="C97">
-        <v>740</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B98" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B98" s="2">
         <v>101</v>
       </c>
       <c r="C98">
-        <v>430</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B99" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B99" s="2">
         <v>102</v>
       </c>
       <c r="C99">
-        <v>470</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B100" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B100" s="2">
         <v>103</v>
       </c>
       <c r="C100">
-        <v>460</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B101" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B101" s="2">
         <v>104</v>
       </c>
       <c r="C101">
-        <v>530</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B102" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B102" s="2">
         <v>105</v>
       </c>
       <c r="C102">
-        <v>450</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B103" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B103" s="2">
         <v>106</v>
       </c>
       <c r="C103">
-        <v>470</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B104" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B104" s="2">
         <v>107</v>
       </c>
       <c r="C104">
-        <v>370</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B105" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B105" s="2">
         <v>108</v>
       </c>
       <c r="C105">
-        <v>590</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B106" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B106" s="2">
         <v>201</v>
       </c>
       <c r="C106">
-        <v>420</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B107" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B107" s="2">
         <v>202</v>
       </c>
       <c r="C107">
-        <v>450</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B108" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B108" s="2">
         <v>203</v>
       </c>
       <c r="C108">
-        <v>330</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B109" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B109" s="2">
         <v>204</v>
       </c>
       <c r="C109">
-        <v>400</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B110" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B110" s="2">
         <v>205</v>
       </c>
       <c r="C110">
-        <v>350</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B111" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B111" s="2">
         <v>206</v>
       </c>
       <c r="C111">
-        <v>350</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B112" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B112" s="2">
         <v>207</v>
       </c>
       <c r="C112">
-        <v>330</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B113" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B113" s="2">
         <v>208</v>
       </c>
       <c r="C113">
-        <v>400</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B114" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B114" s="2">
         <v>301</v>
       </c>
       <c r="C114">
-        <v>340</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B115" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B115" s="2">
         <v>302</v>
       </c>
       <c r="C115">
-        <v>340</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B116" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B116" s="2">
         <v>303</v>
       </c>
       <c r="C116">
-        <v>300</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B117" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B117" s="2">
         <v>304</v>
       </c>
       <c r="C117">
-        <v>290</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B118" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B118" s="2">
         <v>305</v>
       </c>
       <c r="C118">
-        <v>350</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B119" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B119" s="2">
         <v>306</v>
       </c>
       <c r="C119">
-        <v>330</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B120" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B120" s="2">
         <v>307</v>
       </c>
       <c r="C120">
-        <v>300</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B121" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B121" s="2">
         <v>308</v>
       </c>
       <c r="C121">
-        <v>320</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B122" s="2">
-        <v>101</v>
+        <v>2021</v>
+      </c>
+      <c r="B122" s="1">
+        <v>401</v>
       </c>
       <c r="C122">
-        <v>1.1299999999999999</v>
+        <v>590</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B123" s="2">
-        <v>102</v>
+        <v>2021</v>
+      </c>
+      <c r="B123" s="1">
+        <v>402</v>
       </c>
       <c r="C123">
-        <v>1.1299999999999999</v>
+        <v>590</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B124" s="2">
-        <v>103</v>
+        <v>2021</v>
+      </c>
+      <c r="B124" s="1">
+        <v>403</v>
       </c>
       <c r="C124">
-        <v>1.1599999999999999</v>
+        <v>620</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B125" s="2">
-        <v>104</v>
+        <v>2021</v>
+      </c>
+      <c r="B125" s="1">
+        <v>404</v>
       </c>
       <c r="C125">
-        <v>1.21</v>
+        <v>620</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B126" s="2">
-        <v>105</v>
+        <v>2021</v>
+      </c>
+      <c r="B126" s="1">
+        <v>405</v>
       </c>
       <c r="C126">
-        <v>1.06</v>
+        <v>530</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B127" s="2">
-        <v>106</v>
+        <v>2021</v>
+      </c>
+      <c r="B127" s="1">
+        <v>406</v>
       </c>
       <c r="C127">
-        <v>1.03</v>
+        <v>600</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B128" s="2">
-        <v>107</v>
+        <v>2021</v>
+      </c>
+      <c r="B128" s="1">
+        <v>407</v>
       </c>
       <c r="C128">
-        <v>1.08</v>
+        <v>600</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B129" s="2">
-        <v>108</v>
+        <v>2021</v>
+      </c>
+      <c r="B129" s="1">
+        <v>408</v>
       </c>
       <c r="C129">
-        <v>1.19</v>
+        <v>610</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B130" s="2">
-        <v>201</v>
+        <v>2021</v>
+      </c>
+      <c r="B130" s="1">
+        <v>501</v>
       </c>
       <c r="C130">
-        <v>1.1299999999999999</v>
+        <v>510</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B131" s="2">
-        <v>202</v>
+        <v>2021</v>
+      </c>
+      <c r="B131" s="1">
+        <v>502</v>
       </c>
       <c r="C131">
-        <v>1.06</v>
+        <v>520</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B132" s="2">
-        <v>203</v>
+        <v>2021</v>
+      </c>
+      <c r="B132" s="1">
+        <v>503</v>
       </c>
       <c r="C132">
-        <v>1.1299999999999999</v>
+        <v>510</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B133" s="2">
-        <v>204</v>
+        <v>2021</v>
+      </c>
+      <c r="B133" s="1">
+        <v>504</v>
       </c>
       <c r="C133">
-        <v>1.1299999999999999</v>
+        <v>510</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B134" s="2">
-        <v>205</v>
+        <v>2021</v>
+      </c>
+      <c r="B134" s="1">
+        <v>505</v>
       </c>
       <c r="C134">
-        <v>1.1200000000000001</v>
+        <v>530</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B135" s="2">
-        <v>206</v>
+        <v>2021</v>
+      </c>
+      <c r="B135" s="1">
+        <v>506</v>
       </c>
       <c r="C135">
-        <v>1.24</v>
+        <v>540</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B136" s="2">
-        <v>207</v>
+        <v>2021</v>
+      </c>
+      <c r="B136" s="1">
+        <v>507</v>
       </c>
       <c r="C136">
-        <v>1.1599999999999999</v>
+        <v>530</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B137" s="2">
-        <v>208</v>
+        <v>2021</v>
+      </c>
+      <c r="B137" s="1">
+        <v>508</v>
       </c>
       <c r="C137">
-        <v>1.1200000000000001</v>
+        <v>550</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B138" s="2">
-        <v>301</v>
+        <v>2021</v>
+      </c>
+      <c r="B138" s="1">
+        <v>601</v>
       </c>
       <c r="C138">
-        <v>1.01</v>
+        <v>530</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B139" s="2">
-        <v>302</v>
+        <v>2021</v>
+      </c>
+      <c r="B139" s="1">
+        <v>602</v>
       </c>
       <c r="C139">
-        <v>1.01</v>
+        <v>510</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B140" s="2">
-        <v>303</v>
+        <v>2021</v>
+      </c>
+      <c r="B140" s="1">
+        <v>603</v>
       </c>
       <c r="C140">
-        <v>1.07</v>
+        <v>540</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B141" s="2">
-        <v>304</v>
+        <v>2021</v>
+      </c>
+      <c r="B141" s="1">
+        <v>604</v>
       </c>
       <c r="C141">
-        <v>1.1399999999999999</v>
+        <v>520</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B142" s="2">
-        <v>305</v>
+        <v>2021</v>
+      </c>
+      <c r="B142" s="1">
+        <v>605</v>
       </c>
       <c r="C142">
-        <v>1.1299999999999999</v>
+        <v>550</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B143" s="2">
-        <v>306</v>
+        <v>2021</v>
+      </c>
+      <c r="B143" s="1">
+        <v>606</v>
       </c>
       <c r="C143">
-        <v>1.08</v>
+        <v>550</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B144" s="2">
-        <v>307</v>
+        <v>2021</v>
+      </c>
+      <c r="B144" s="1">
+        <v>607</v>
       </c>
       <c r="C144">
-        <v>1.1000000000000001</v>
+        <v>570</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B145" s="2">
-        <v>308</v>
+        <v>2021</v>
+      </c>
+      <c r="B145" s="1">
+        <v>608</v>
       </c>
       <c r="C145">
-        <v>1.2</v>
+        <v>560</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="3">
-        <v>2021</v>
+      <c r="A146">
+        <v>2022</v>
       </c>
       <c r="B146" s="2">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C146">
-        <v>1.1499999999999999</v>
+        <v>664</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="3">
-        <v>2021</v>
+      <c r="A147">
+        <v>2022</v>
       </c>
       <c r="B147" s="2">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="C147">
-        <v>1.18</v>
+        <v>660</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="3">
-        <v>2021</v>
+      <c r="A148">
+        <v>2022</v>
       </c>
       <c r="B148" s="2">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="C148">
-        <v>1.23</v>
+        <v>600</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="3">
-        <v>2021</v>
+      <c r="A149">
+        <v>2022</v>
       </c>
       <c r="B149" s="2">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C149">
-        <v>1.25</v>
+        <v>700</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="3">
-        <v>2021</v>
+      <c r="A150">
+        <v>2022</v>
       </c>
       <c r="B150" s="2">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="C150">
-        <v>1.22</v>
+        <v>685</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="3">
-        <v>2021</v>
+      <c r="A151">
+        <v>2022</v>
       </c>
       <c r="B151" s="2">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="C151">
-        <v>1.1299999999999999</v>
+        <v>700</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="3">
-        <v>2021</v>
+      <c r="A152">
+        <v>2022</v>
       </c>
       <c r="B152" s="2">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="C152">
-        <v>1.1499999999999999</v>
+        <v>600</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="3">
-        <v>2021</v>
+      <c r="A153">
+        <v>2022</v>
       </c>
       <c r="B153" s="2">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="C153">
-        <v>1.2</v>
+        <v>680</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
-        <v>2021</v>
+      <c r="A154">
+        <v>2022</v>
       </c>
       <c r="B154" s="2">
-        <v>201</v>
+        <v>9</v>
       </c>
       <c r="C154">
-        <v>1.23</v>
+        <v>610</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="3">
-        <v>2021</v>
+      <c r="A155">
+        <v>2022</v>
       </c>
       <c r="B155" s="2">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="C155">
-        <v>1.23</v>
+        <v>697</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="3">
-        <v>2021</v>
+      <c r="A156">
+        <v>2022</v>
       </c>
       <c r="B156" s="2">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="C156">
-        <v>1.22</v>
+        <v>720</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="3">
-        <v>2021</v>
+      <c r="A157">
+        <v>2022</v>
       </c>
       <c r="B157" s="2">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="C157">
-        <v>1.37</v>
+        <v>600</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="3">
-        <v>2021</v>
+      <c r="A158">
+        <v>2022</v>
       </c>
       <c r="B158" s="2">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="C158">
-        <v>1.19</v>
+        <v>650</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="3">
-        <v>2021</v>
+      <c r="A159">
+        <v>2022</v>
       </c>
       <c r="B159" s="2">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="C159">
-        <v>1.2</v>
+        <v>670</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="3">
-        <v>2021</v>
+      <c r="A160">
+        <v>2022</v>
       </c>
       <c r="B160" s="2">
-        <v>207</v>
+        <v>15</v>
       </c>
       <c r="C160">
-        <v>1.22</v>
+        <v>614</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="3">
-        <v>2021</v>
+      <c r="A161">
+        <v>2022</v>
       </c>
       <c r="B161" s="2">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="C161">
-        <v>1.23</v>
+        <v>670</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="3">
-        <v>2021</v>
+      <c r="A162">
+        <v>2022</v>
       </c>
       <c r="B162" s="2">
-        <v>301</v>
+        <v>17</v>
       </c>
       <c r="C162">
-        <v>1.23</v>
+        <v>640</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="3">
-        <v>2021</v>
+      <c r="A163">
+        <v>2022</v>
       </c>
       <c r="B163" s="2">
-        <v>302</v>
+        <v>18</v>
       </c>
       <c r="C163">
-        <v>1.22</v>
+        <v>560</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="3">
-        <v>2021</v>
+      <c r="A164">
+        <v>2022</v>
       </c>
       <c r="B164" s="2">
-        <v>303</v>
+        <v>19</v>
       </c>
       <c r="C164">
-        <v>1.22</v>
+        <v>580</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="3">
-        <v>2021</v>
+      <c r="A165">
+        <v>2022</v>
       </c>
       <c r="B165" s="2">
-        <v>304</v>
+        <v>20</v>
       </c>
       <c r="C165">
-        <v>1.19</v>
+        <v>620</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="3">
-        <v>2021</v>
+      <c r="A166">
+        <v>2022</v>
       </c>
       <c r="B166" s="2">
-        <v>305</v>
+        <v>21</v>
       </c>
       <c r="C166">
-        <v>1.2</v>
+        <v>610</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="3">
-        <v>2021</v>
+      <c r="A167">
+        <v>2022</v>
       </c>
       <c r="B167" s="2">
-        <v>306</v>
+        <v>22</v>
       </c>
       <c r="C167">
-        <v>1.38</v>
+        <v>650</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="3">
-        <v>2021</v>
+      <c r="A168">
+        <v>2022</v>
       </c>
       <c r="B168" s="2">
-        <v>307</v>
+        <v>23</v>
       </c>
       <c r="C168">
-        <v>1.21</v>
+        <v>620</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="3">
-        <v>2021</v>
+      <c r="A169">
+        <v>2022</v>
       </c>
       <c r="B169" s="2">
-        <v>308</v>
+        <v>24</v>
       </c>
       <c r="C169">
-        <v>1.18</v>
+        <v>540</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="3">
-        <v>2021</v>
+      <c r="A170">
+        <v>2022</v>
       </c>
       <c r="B170" s="1">
-        <v>401</v>
+        <v>25</v>
       </c>
       <c r="C170">
-        <v>590</v>
+        <v>400</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="3">
-        <v>2021</v>
+      <c r="A171">
+        <v>2022</v>
       </c>
       <c r="B171" s="1">
-        <v>402</v>
+        <v>26</v>
       </c>
       <c r="C171">
-        <v>590</v>
+        <v>410</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="3">
-        <v>2021</v>
+      <c r="A172">
+        <v>2022</v>
       </c>
       <c r="B172" s="1">
-        <v>403</v>
+        <v>27</v>
       </c>
       <c r="C172">
-        <v>620</v>
+        <v>600</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="3">
-        <v>2021</v>
+      <c r="A173">
+        <v>2022</v>
       </c>
       <c r="B173" s="1">
-        <v>404</v>
+        <v>28</v>
       </c>
       <c r="C173">
-        <v>620</v>
+        <v>510</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="3">
-        <v>2021</v>
+      <c r="A174">
+        <v>2022</v>
       </c>
       <c r="B174" s="1">
-        <v>405</v>
+        <v>29</v>
       </c>
       <c r="C174">
-        <v>530</v>
+        <v>650</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="3">
-        <v>2021</v>
+      <c r="A175">
+        <v>2022</v>
       </c>
       <c r="B175" s="1">
-        <v>406</v>
+        <v>30</v>
       </c>
       <c r="C175">
-        <v>600</v>
+        <v>640</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="3">
-        <v>2021</v>
+      <c r="A176">
+        <v>2022</v>
       </c>
       <c r="B176" s="1">
-        <v>407</v>
+        <v>31</v>
       </c>
       <c r="C176">
-        <v>600</v>
+        <v>610</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="3">
-        <v>2021</v>
+      <c r="A177">
+        <v>2022</v>
       </c>
       <c r="B177" s="1">
-        <v>408</v>
+        <v>32</v>
       </c>
       <c r="C177">
-        <v>610</v>
+        <v>520</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="3">
-        <v>2021</v>
+      <c r="A178">
+        <v>2022</v>
       </c>
       <c r="B178" s="1">
-        <v>501</v>
+        <v>33</v>
       </c>
       <c r="C178">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>2022</v>
+      </c>
+      <c r="B179" s="1">
+        <v>34</v>
+      </c>
+      <c r="C179">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>2022</v>
+      </c>
+      <c r="B180" s="1">
+        <v>35</v>
+      </c>
+      <c r="C180">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>2022</v>
+      </c>
+      <c r="B181" s="1">
+        <v>36</v>
+      </c>
+      <c r="C181">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>2022</v>
+      </c>
+      <c r="B182" s="1">
+        <v>37</v>
+      </c>
+      <c r="C182">
         <v>510</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B179" s="1">
-        <v>502</v>
-      </c>
-      <c r="C179">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B180" s="1">
-        <v>503</v>
-      </c>
-      <c r="C180">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B181" s="1">
-        <v>504</v>
-      </c>
-      <c r="C181">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B182" s="1">
-        <v>505</v>
-      </c>
-      <c r="C182">
-        <v>530</v>
-      </c>
-    </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="3">
-        <v>2021</v>
+      <c r="A183">
+        <v>2022</v>
       </c>
       <c r="B183" s="1">
-        <v>506</v>
+        <v>38</v>
       </c>
       <c r="C183">
         <v>540</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="3">
-        <v>2021</v>
+      <c r="A184">
+        <v>2022</v>
       </c>
       <c r="B184" s="1">
-        <v>507</v>
+        <v>39</v>
       </c>
       <c r="C184">
-        <v>530</v>
+        <v>610</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="3">
-        <v>2021</v>
+      <c r="A185">
+        <v>2022</v>
       </c>
       <c r="B185" s="1">
-        <v>508</v>
+        <v>40</v>
       </c>
       <c r="C185">
-        <v>550</v>
+        <v>610</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="3">
-        <v>2021</v>
+      <c r="A186">
+        <v>2022</v>
       </c>
       <c r="B186" s="1">
-        <v>601</v>
+        <v>41</v>
       </c>
       <c r="C186">
-        <v>530</v>
+        <v>600</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="3">
-        <v>2021</v>
+      <c r="A187">
+        <v>2022</v>
       </c>
       <c r="B187" s="1">
-        <v>602</v>
+        <v>42</v>
       </c>
       <c r="C187">
-        <v>510</v>
+        <v>630</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="3">
-        <v>2021</v>
+      <c r="A188">
+        <v>2022</v>
       </c>
       <c r="B188" s="1">
-        <v>603</v>
+        <v>43</v>
       </c>
       <c r="C188">
-        <v>540</v>
+        <v>600</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="3">
-        <v>2021</v>
+      <c r="A189">
+        <v>2022</v>
       </c>
       <c r="B189" s="1">
-        <v>604</v>
+        <v>44</v>
       </c>
       <c r="C189">
-        <v>520</v>
+        <v>660</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="3">
-        <v>2021</v>
+      <c r="A190">
+        <v>2022</v>
       </c>
       <c r="B190" s="1">
-        <v>605</v>
+        <v>45</v>
       </c>
       <c r="C190">
-        <v>550</v>
+        <v>670</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="3">
-        <v>2021</v>
+      <c r="A191">
+        <v>2022</v>
       </c>
       <c r="B191" s="1">
-        <v>606</v>
+        <v>46</v>
       </c>
       <c r="C191">
-        <v>550</v>
+        <v>590</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="3">
-        <v>2021</v>
+      <c r="A192">
+        <v>2022</v>
       </c>
       <c r="B192" s="1">
-        <v>607</v>
+        <v>47</v>
       </c>
       <c r="C192">
-        <v>570</v>
+        <v>610</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="3">
-        <v>2021</v>
+      <c r="A193">
+        <v>2022</v>
       </c>
       <c r="B193" s="1">
-        <v>608</v>
+        <v>48</v>
       </c>
       <c r="C193">
-        <v>560</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
